--- a/Medicamentos .xlsx
+++ b/Medicamentos .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmrse\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmrse\OneDrive\Escritorio\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A823C62-DCF5-41B9-AAC4-1B088BE8EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD444D-781C-4CAF-8B02-2925E1E9090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94201256-1FBE-4B12-8C01-9F32A8C022DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>nombre_medicamento</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>Ranitidina</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Óptimo</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Crítico</t>
+  </si>
+  <si>
+    <t>Agotado</t>
   </si>
 </sst>
 </file>
@@ -119,11 +134,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,21 +473,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9391517-C93F-47EE-BD4F-1C5C7847EB9D}">
-  <dimension ref="C4:G16"/>
+  <dimension ref="C4:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+      <selection activeCell="C4" sqref="C4:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,199 +498,234 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>176</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
       <c r="D6" s="1">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2">
         <f>D6/D5</f>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+        <v>0.51704545454545459</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
       <c r="D7" s="1">
         <v>40</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>D7/D5</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="F7" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
       <c r="D8" s="1">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
         <f>D8/D5</f>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="F8" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
+        <v>0.17045454545454544</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
       <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <f>D9/D5</f>
-        <v>0.17045454545454544</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+        <v>8.5227272727272721E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
       <c r="D10" s="1">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <f>D10/D5</f>
-        <v>0.14772727272727273</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
       <c r="D12" s="1">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
+        <v>180</v>
+      </c>
+      <c r="E12" s="2">
         <f>D12/D11</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
       <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <f>D13/D11</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
-        <f>D13/D11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F13" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
+      <c r="G13" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
       <c r="D14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <f>D14/D11</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <f>D14/D11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+      <c r="G14" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
       <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>D15/D11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
       <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <f>D16/D11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45784</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
